--- a/medicine/Psychotrope/Crémant_de_Luxembourg/Crémant_de_Luxembourg.xlsx
+++ b/medicine/Psychotrope/Crémant_de_Luxembourg/Crémant_de_Luxembourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le crémant de Luxembourg est un vin mousseux d'appellation d'origine contrôlée produit dans tout le vignoble du Luxembourg. Le crémant de Luxembourg est le seul crémant en dehors de France, à faire partie du groupement protégeant cette dénomination, avec 7 régions françaises[1].
+Le crémant de Luxembourg est un vin mousseux d'appellation d'origine contrôlée produit dans tout le vignoble du Luxembourg. Le crémant de Luxembourg est le seul crémant en dehors de France, à faire partie du groupement protégeant cette dénomination, avec 7 régions françaises.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production de vins de mousseux, au Luxembourg, remonte au XVIIIe siècle. Pour des raisons fiscales, la maison champenoise Mercier choisit, en 1885, de s'installer dans le Grand Duché, avec ses méthodes traditionnelles de production[2]. 
-La dénomination Crémant du Luxembourg est officialisée en 1991. Depuis 2015, une appellation spécifique est créée pour les crémants de grand cru, le " crémant millésimé ". Les bouteilles de cette dernière appellation doivent rester sur lattes (couchées) un minimum de 24 mois[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production de vins de mousseux, au Luxembourg, remonte au XVIIIe siècle. Pour des raisons fiscales, la maison champenoise Mercier choisit, en 1885, de s'installer dans le Grand Duché, avec ses méthodes traditionnelles de production. 
+La dénomination Crémant du Luxembourg est officialisée en 1991. Depuis 2015, une appellation spécifique est créée pour les crémants de grand cru, le " crémant millésimé ". Les bouteilles de cette dernière appellation doivent rester sur lattes (couchées) un minimum de 24 mois.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La zone de production des vins et crémants luxembourgeois est délimitée par un périmètre viticole conformément aux  dispositions de la loi du 9 avril 1982, confirmé par un règlement du 9 septembre 2009. Les communes concernées sont[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La zone de production des vins et crémants luxembourgeois est délimitée par un périmètre viticole conformément aux  dispositions de la loi du 9 avril 1982, confirmé par un règlement du 9 septembre 2009. Les communes concernées sont :
 Bous-Waldbredimus
 Flaxweiler
 Grevenmacher
@@ -557,9 +573,7 @@
 Rosport-Mompach
 Schengen
 Stadtbredimus
-Wormeldange
-Géologie et orographie
-Climatologie</t>
+Wormeldange</t>
         </is>
       </c>
     </row>
@@ -569,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +601,11 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les rendements sont limités à 110 ou 115 hectolitres à l’hectare, suivant les cépages. Les cépages autorisés sont [4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les rendements sont limités à 110 ou 115 hectolitres à l’hectare, suivant les cépages. Les cépages autorisés sont  :
 Auxerrois
 Chardonnay
 Elbling
@@ -603,8 +619,7 @@
 Riesling
 Rivaner
 Saint Laurent
-Sylvaner
-Vendanges</t>
+Sylvaner</t>
         </is>
       </c>
     </row>
@@ -614,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +647,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les règles de production sont très précises :
 des raisins cueillis à la main ;
@@ -640,8 +657,8 @@
 la cuvée doit être rendue mousseuse par une deuxième fermentation alcoolique en bouteille ;
 la cuvée doit reposer sans interruption sur lies pendant au moins neuf mois dans la même entreprise ;
 la teneur en sucre doit être inférieure à 50 g/l.
-En 2015, 33 crémants luxembourgeois sont médaillés (22 en or et 11 en argent), lors d'un concours national à Amboise[5].
-En 2017, 16 crémants de Luxembourg reçoivent une médaille d'or, lors du 26e congrès national des crémants de France et du Luxembourg, en Savoie[6].
+En 2015, 33 crémants luxembourgeois sont médaillés (22 en or et 11 en argent), lors d'un concours national à Amboise.
+En 2017, 16 crémants de Luxembourg reçoivent une médaille d'or, lors du 26e congrès national des crémants de France et du Luxembourg, en Savoie.
 </t>
         </is>
       </c>
@@ -652,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Luxembourg</t>
+          <t>Crémant_de_Luxembourg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,9 +687,11 @@
           <t>Œnotourisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une route des vins du Luxembourg, de 42 km, sillonne le vignoble luxembourgeois, longeant la vallée de la Moselle[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une route des vins du Luxembourg, de 42 km, sillonne le vignoble luxembourgeois, longeant la vallée de la Moselle.
 </t>
         </is>
       </c>
